--- a/biology/Botanique/Rosa_×alba/Rosa_×alba.xlsx
+++ b/biology/Botanique/Rosa_×alba/Rosa_×alba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rosa_%C3%97alba</t>
+          <t>Rosa_×alba</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Rosier blanc, Rosa × alba, est espèce de plantes à fleurs de la famille des Rosaceae. C'est un nom collectif pour un hybride de rosier originaire d'Europe où elle est connue depuis l'Antiquité et cultivée depuis la Renaissance. C'est en fait un groupe d'hybrides dont la parenté est incertaine, probablement issus de croisements entre Rosa gallica × Rosa corymbifera ou bien Rosa × damascena × Rosa canina[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Rosier blanc, Rosa × alba, est espèce de plantes à fleurs de la famille des Rosaceae. C'est un nom collectif pour un hybride de rosier originaire d'Europe où elle est connue depuis l'Antiquité et cultivée depuis la Renaissance. C'est en fait un groupe d'hybrides dont la parenté est incertaine, probablement issus de croisements entre Rosa gallica × Rosa corymbifera ou bien Rosa × damascena × Rosa canina,.
 Synonyme : Rosa × alba L. var. semiplena hort.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rosa_%C3%97alba</t>
+          <t>Rosa_×alba</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste à port dressé, à feuilles caduques, de deux mètres de haut environ, relativement rustique.
 Les feuilles imparipennées comptent de cinq folioles ovales ou arrondies de cinq centimètres de long environ, au bord serré, sans poils glandulaires.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rosa_%C3%97alba</t>
+          <t>Rosa_×alba</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Variétés cultivées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rosa × alba
 Rosa × alba 'Semiplena', rose blanche d'York, déjà cultivée par les Romains, qui existe encore à l'état sauvage dans le Kurdistan,
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rosa_%C3%97alba</t>
+          <t>Rosa_×alba</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Hybrides</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>'Blanche de Belgique', à fleurs d'un blanc immaculé,
 'Celestial', à fleurs demi-doubles rose pâle,
@@ -589,7 +607,7 @@
 'Madame Plantier', à fleurs blanches,
 'Pompon Parfait' ou 'Pompon Blanc Parfait',
 'Reine du Danemark', de couleur rose chair,
-'York et Lancaster' (pour certains Rosa × damascena 'versicolor'), à grandes fleurs roses et blanches[3].</t>
+'York et Lancaster' (pour certains Rosa × damascena 'versicolor'), à grandes fleurs roses et blanches.</t>
         </is>
       </c>
     </row>
